--- a/me_docs/2.JSP-Fundamentals.xlsx
+++ b/me_docs/2.JSP-Fundamentals.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E85DEC-7129-46F7-87A1-D538FE4AE2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD35CA0-703E-4C42-A59C-856537CCC165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix eror" sheetId="2" r:id="rId1"/>
     <sheet name="hello world" sheetId="1" r:id="rId2"/>
+    <sheet name="Expressions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Create Dynamic Web Project</t>
   </si>
@@ -61,6 +62,18 @@
   </si>
   <si>
     <t>Lỗi này xảy ra khi run Tomcat server ở sheet tiếp theo</t>
+  </si>
+  <si>
+    <t>Create expression-test.jsp</t>
+  </si>
+  <si>
+    <t>Can run server here</t>
+  </si>
+  <si>
+    <t>expression-test.jsp</t>
+  </si>
+  <si>
+    <t>Acess url to test: http://localhost:8080/jspdemo/expression-test.jsp</t>
   </si>
 </sst>
 </file>
@@ -563,6 +576,231 @@
         <a:xfrm>
           <a:off x="609600" y="41148000"/>
           <a:ext cx="5666667" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>465443</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>171287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B29882-6474-452E-BA00-D2542F1B6AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="23822025"/>
+          <a:ext cx="10257143" cy="1304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65828</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D1029B-8713-498B-9FA3-B8E4F329944A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12763500"/>
+          <a:ext cx="6771428" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8914</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>170738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF0B01E-484F-41DE-B8FF-89EBA7295DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="4885714" cy="5695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17981</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>123357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7203A9BB-A1E8-47AB-97FE-8C546EA8CBDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11620500"/>
+          <a:ext cx="8552381" cy="3742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>532876</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4C641E-4CE2-40D9-98F0-E670A44A3657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15811500"/>
+          <a:ext cx="4190476" cy="1923810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDAB70B-267F-4DC7-B3E4-EAFF686CE5B1}">
   <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -879,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A216"/>
+  <dimension ref="A2:P216"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="Q135" sqref="Q135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,14 +1135,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DD614A-6228-4312-A9F7-EAD5E15292E7}">
+  <dimension ref="A3:A83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/me_docs/2.JSP-Fundamentals.xlsx
+++ b/me_docs/2.JSP-Fundamentals.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD35CA0-703E-4C42-A59C-856537CCC165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45A42DA-0B11-4734-AC09-A651388069C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix eror" sheetId="2" r:id="rId1"/>
     <sheet name="hello world" sheetId="1" r:id="rId2"/>
     <sheet name="Expressions" sheetId="3" r:id="rId3"/>
+    <sheet name="Scriptlets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Create Dynamic Web Project</t>
   </si>
@@ -74,6 +75,15 @@
   </si>
   <si>
     <t>Acess url to test: http://localhost:8080/jspdemo/expression-test.jsp</t>
+  </si>
+  <si>
+    <t>Create scriptlet-test.jsp</t>
+  </si>
+  <si>
+    <t>scriptlet-test.jsp</t>
+  </si>
+  <si>
+    <t>Acess url to test: http://localhost:8080/jspdemo/scriptlet-test.jsp</t>
   </si>
 </sst>
 </file>
@@ -801,6 +811,187 @@
         <a:xfrm>
           <a:off x="609600" y="15811500"/>
           <a:ext cx="4190476" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65828</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA3DF41-57DE-407A-982D-FB73B845D8E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="6771428" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599467</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55FD179-E658-4FF4-AA61-6A4906D295C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="4866667" cy="5704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>237257</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>113809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CBE404-0C73-4212-BE07-76CEA7E8B456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11620500"/>
+          <a:ext cx="6942857" cy="3923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27962</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6889A285-9088-4549-B2D6-13E2AB1AF548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16002000"/>
+          <a:ext cx="4904762" cy="2485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DD614A-6228-4312-A9F7-EAD5E15292E7}">
   <dimension ref="A3:A83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
@@ -1184,4 +1375,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603D5DF7-9BBC-4883-86C2-0A338398F13A}">
+  <dimension ref="A3:A84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="O91" sqref="O91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me_docs/2.JSP-Fundamentals.xlsx
+++ b/me_docs/2.JSP-Fundamentals.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45A42DA-0B11-4734-AC09-A651388069C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EEF50F-44E8-4DF2-B3A3-589CEC77463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix eror" sheetId="2" r:id="rId1"/>
     <sheet name="hello world" sheetId="1" r:id="rId2"/>
     <sheet name="Expressions" sheetId="3" r:id="rId3"/>
     <sheet name="Scriptlets" sheetId="4" r:id="rId4"/>
+    <sheet name="Declarations" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Create Dynamic Web Project</t>
   </si>
@@ -84,6 +85,15 @@
   </si>
   <si>
     <t>Acess url to test: http://localhost:8080/jspdemo/scriptlet-test.jsp</t>
+  </si>
+  <si>
+    <t>declaration-test.jsp</t>
+  </si>
+  <si>
+    <t>Acess url to test: http://localhost:8080/jspdemo/declaration-test.jsp</t>
+  </si>
+  <si>
+    <t>Create declaration-test.jsp</t>
   </si>
 </sst>
 </file>
@@ -992,6 +1002,187 @@
         <a:xfrm>
           <a:off x="609600" y="16002000"/>
           <a:ext cx="4904762" cy="2485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65828</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3DAFF3-AEC2-42CA-8BC0-C436BB36BA1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="6771428" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570895</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF0F108-B000-4296-8AE3-536333854C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="4838095" cy="5666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513448</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1265FFF7-C588-41D5-A2C2-AC10C00160BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11620500"/>
+          <a:ext cx="7219048" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47009</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A419B76-79CE-4318-958A-10D72A580B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15621000"/>
+          <a:ext cx="4923809" cy="1276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1381,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603D5DF7-9BBC-4883-86C2-0A338398F13A}">
   <dimension ref="A3:A84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
@@ -1406,4 +1597,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F234B01-DED5-4AFD-93B0-27D013411CD8}">
+  <dimension ref="A3:A82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me_docs/2.JSP-Fundamentals.xlsx
+++ b/me_docs/2.JSP-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EEF50F-44E8-4DF2-B3A3-589CEC77463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A287138C-6826-460F-B797-0162527E9F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix eror" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Expressions" sheetId="3" r:id="rId3"/>
     <sheet name="Scriptlets" sheetId="4" r:id="rId4"/>
     <sheet name="Declarations" sheetId="6" r:id="rId5"/>
+    <sheet name="Calling a Java Class from JSP" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Create Dynamic Web Project</t>
   </si>
@@ -94,6 +95,18 @@
   </si>
   <si>
     <t>Create declaration-test.jsp</t>
+  </si>
+  <si>
+    <t>Create Package com.luv2code.jsp</t>
+  </si>
+  <si>
+    <t>Create class FunUtils</t>
+  </si>
+  <si>
+    <t>Create fun-test.jsp</t>
+  </si>
+  <si>
+    <t>Acess url to test: http://localhost:8080/jspdemo/fun-test.jsp</t>
   </si>
 </sst>
 </file>
@@ -1183,6 +1196,407 @@
         <a:xfrm>
           <a:off x="609600" y="15621000"/>
           <a:ext cx="4923809" cy="1276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>170590</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5486A61-564B-420F-8FE7-424B035563C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1143000"/>
+          <a:ext cx="6876190" cy="4980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599467</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>56643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287DD2D0-DDA5-44D8-BEAD-C3B32746A4E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6286500"/>
+          <a:ext cx="4866667" cy="4057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>418209</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>113881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0C2A1C-1A29-40EB-8F62-65BD08CF60C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10096500"/>
+          <a:ext cx="7123809" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>151771</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>104024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAE6E73-79B3-4E23-980D-0980AB4E6B8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13716000"/>
+          <a:ext cx="5028571" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65828</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D87CF67-FB91-45D1-87C8-94923034D3A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20193000"/>
+          <a:ext cx="6771428" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608990</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>151690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9E2938-43B2-43A7-B4BE-354390012AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25146000"/>
+          <a:ext cx="4876190" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>599238</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>9119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986B4787-6717-43CB-84FB-D98C3027EC1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20002500"/>
+          <a:ext cx="6695238" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>284800</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>28024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC22F55D-79CE-4A90-9AB2-CACA8803908E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="34671000"/>
+          <a:ext cx="7600000" cy="4409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275733</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>104571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CF5268-4070-483C-84E3-30FC9A4C3CFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="39624000"/>
+          <a:ext cx="3933333" cy="1628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1603,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F234B01-DED5-4AFD-93B0-27D013411CD8}">
   <dimension ref="A3:A82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,4 +2042,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636875A8-FC73-4A12-A9D2-41431C04E253}">
+  <dimension ref="A2:A208"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me_docs/2.JSP-Fundamentals.xlsx
+++ b/me_docs/2.JSP-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A287138C-6826-460F-B797-0162527E9F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892073E-6FEF-4C39-A187-3C25959C17E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix eror" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Scriptlets" sheetId="4" r:id="rId4"/>
     <sheet name="Declarations" sheetId="6" r:id="rId5"/>
     <sheet name="Calling a Java Class from JSP" sheetId="7" r:id="rId6"/>
+    <sheet name="JSP Built-In Objects" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Create Dynamic Web Project</t>
   </si>
@@ -107,13 +108,25 @@
   </si>
   <si>
     <t>Acess url to test: http://localhost:8080/jspdemo/fun-test.jsp</t>
+  </si>
+  <si>
+    <t>Request Object</t>
+  </si>
+  <si>
+    <t>Create builtin-test.jsp</t>
+  </si>
+  <si>
+    <t>builtin-test.jsp</t>
+  </si>
+  <si>
+    <t>Acess url to test: http://localhost:8080/jspdemo/builtin-test.jsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +137,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,10 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,6 +1619,187 @@
         <a:xfrm>
           <a:off x="609600" y="39624000"/>
           <a:ext cx="3933333" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65828</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C4AC8C-C6FC-4176-A5DF-BEE337C2370C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="762000"/>
+          <a:ext cx="6771428" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599467</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>151690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CB57D6-13E4-455E-BAB1-A84FC101E52D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5715000"/>
+          <a:ext cx="4866667" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>28024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD400078-0BCF-43A0-96D6-F344ED45041B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11811000"/>
+          <a:ext cx="7200000" cy="4409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160686</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>28357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F45656-BFFB-4FBC-ACA7-203EDE3131A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16764000"/>
+          <a:ext cx="9914286" cy="1742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,7 +2221,7 @@
   <dimension ref="A3:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636875A8-FC73-4A12-A9D2-41431C04E253}">
   <dimension ref="A2:A208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
@@ -2078,4 +2281,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB6D83-DA82-4A49-860A-5F0DD4BD514D}">
+  <dimension ref="A2:A88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me_docs/2.JSP-Fundamentals.xlsx
+++ b/me_docs/2.JSP-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892073E-6FEF-4C39-A187-3C25959C17E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259BB3C8-E7D3-4B3D-BFAB-FEF6F07A6BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix eror" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Declarations" sheetId="6" r:id="rId5"/>
     <sheet name="Calling a Java Class from JSP" sheetId="7" r:id="rId6"/>
     <sheet name="JSP Built-In Objects" sheetId="8" r:id="rId7"/>
+    <sheet name="Including Files in JSP" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Create Dynamic Web Project</t>
   </si>
@@ -120,6 +121,21 @@
   </si>
   <si>
     <t>Acess url to test: http://localhost:8080/jspdemo/builtin-test.jsp</t>
+  </si>
+  <si>
+    <t>Create my-header.html</t>
+  </si>
+  <si>
+    <t>my-header.html</t>
+  </si>
+  <si>
+    <t>Create my-footer.jsp</t>
+  </si>
+  <si>
+    <t>Create homepage.jsp</t>
+  </si>
+  <si>
+    <t>Acess url to test: http://localhost:8080/jspdemo/homepage.jsp</t>
   </si>
 </sst>
 </file>
@@ -1800,6 +1816,451 @@
         <a:xfrm>
           <a:off x="609600" y="16764000"/>
           <a:ext cx="9914286" cy="1742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65828</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D0AAC6-7D3D-48C9-87A7-48AE1AC3D85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="762000"/>
+          <a:ext cx="6771428" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580419</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C645BC-019C-4CC1-BC30-0B7AD44003E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5334000"/>
+          <a:ext cx="4847619" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>30964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756D2F83-59FC-4094-9F48-5BC8A3A496E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11430000"/>
+          <a:ext cx="6143625" cy="4602964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65828</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F811A71-ADCE-452F-8DE2-CC7FE1A8789F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16573500"/>
+          <a:ext cx="6771428" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599467</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>170738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E896DE5-22AD-4C10-9AFF-ABECBC379F67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21526500"/>
+          <a:ext cx="4866667" cy="5695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>551467</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>113667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C41DC46-17C2-449C-8F2F-16B2C4C5E2E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="27432000"/>
+          <a:ext cx="7866667" cy="5066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65828</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE24549-E8CE-4DD9-B01F-0C1543DBEBCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32956500"/>
+          <a:ext cx="6771428" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8914</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>151690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DBE9BB-F837-4B50-AC6E-516FA27F0E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="37909500"/>
+          <a:ext cx="4885714" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>379962</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>27929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98875871-10C2-4413-BA66-064E667742C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="43815000"/>
+          <a:ext cx="8304762" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>322819</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>47286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98CEBA7-5BBA-49AC-AE76-964DF0D4DFA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="49530000"/>
+          <a:ext cx="8247619" cy="2714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2287,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB6D83-DA82-4A49-860A-5F0DD4BD514D}">
   <dimension ref="A2:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,4 +2779,46 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87266AB-FECF-426D-97A2-B2C6E2F3156E}">
+  <dimension ref="A2:A260"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="R268" sqref="R268"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>